--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/GEORGIA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/GEORGIA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1604"/>
+  <dimension ref="A1:D1598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C10">
@@ -548,7 +548,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C14">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C39">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C41">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C47">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C50">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C76">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C81">
@@ -1525,7 +1525,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C88">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C89">
@@ -1966,7 +1966,7 @@
         <v>24</v>
       </c>
       <c r="D121">
-        <v>0.0009601152138256591</v>
+        <v>0.0009601152138256592</v>
       </c>
     </row>
     <row r="122">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C123">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C129">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C131">
@@ -2245,7 +2245,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C143">
@@ -2536,7 +2536,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C165">
@@ -2697,7 +2697,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C177">
@@ -2723,7 +2723,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2780,7 +2780,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C183">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C210">
@@ -3188,7 +3188,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C214">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C221">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C222">
@@ -3305,7 +3305,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C223">
@@ -3318,7 +3318,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C224">
@@ -3448,12 +3448,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C234">
@@ -3492,7 +3492,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C237">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C239">
@@ -3596,7 +3596,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C245">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C250">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C253">
@@ -3778,7 +3778,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C259">
@@ -3856,7 +3856,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C265">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C266">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C279">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C291">
@@ -4207,7 +4207,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C292">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C294">
@@ -4305,7 +4305,7 @@
         <v>24</v>
       </c>
       <c r="D299">
-        <v>0.0009601152138256591</v>
+        <v>0.0009601152138256592</v>
       </c>
     </row>
     <row r="300">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C303">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C304">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C314">
@@ -4558,7 +4558,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C319">
@@ -4571,7 +4571,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C320">
@@ -4584,7 +4584,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C321">
@@ -4597,7 +4597,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C322">
@@ -4758,7 +4758,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C334">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C335">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C336">
@@ -4888,7 +4888,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C344">
@@ -4940,7 +4940,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C348">
@@ -5044,7 +5044,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C356">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C360">
@@ -5122,7 +5122,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C362">
@@ -5148,7 +5148,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C364">
@@ -5174,7 +5174,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C366">
@@ -5200,7 +5200,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C368">
@@ -5265,7 +5265,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C373">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C379">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C382">
@@ -5400,7 +5400,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C383">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C387">
@@ -5478,7 +5478,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C389">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C390">
@@ -5530,7 +5530,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C393">
@@ -5543,7 +5543,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C394">
@@ -5556,7 +5556,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C395">
@@ -5569,14 +5569,14 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C396">
         <v>24</v>
       </c>
       <c r="D396">
-        <v>0.0009601152138256591</v>
+        <v>0.0009601152138256592</v>
       </c>
     </row>
     <row r="397">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C401">
@@ -5647,7 +5647,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C402">
@@ -5667,7 +5667,7 @@
         <v>24</v>
       </c>
       <c r="D403">
-        <v>0.0009601152138256591</v>
+        <v>0.0009601152138256592</v>
       </c>
     </row>
     <row r="404">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C406">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C407">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C413">
@@ -5803,7 +5803,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C414">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C416">
@@ -5842,7 +5842,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C417">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C419">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C422">
@@ -6076,7 +6076,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C435">
@@ -6102,7 +6102,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C437">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C439">
@@ -6154,7 +6154,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C441">
@@ -6193,7 +6193,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C444">
@@ -6354,7 +6354,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C456">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C462">
@@ -6445,7 +6445,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C463">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C469">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C475">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C479">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C482">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C489">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C490">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C491">
@@ -6822,7 +6822,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C492">
@@ -6848,7 +6848,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C494">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C496">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C499">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C505">
@@ -7004,7 +7004,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C506">
@@ -7056,7 +7056,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C510">
@@ -7082,7 +7082,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C512">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C513">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C515">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C521">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C522">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C526">
@@ -7277,7 +7277,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C527">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C532">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C533">
@@ -7412,7 +7412,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C537">
@@ -7451,7 +7451,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C540">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C542">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C549">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C555">
@@ -7711,7 +7711,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C560">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C561">
@@ -7737,7 +7737,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C562">
@@ -7789,7 +7789,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C566">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C570">
@@ -7854,7 +7854,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C571">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C577">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C583">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C585">
@@ -8062,7 +8062,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C587">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C589">
@@ -8101,7 +8101,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C590">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C594">
@@ -8179,7 +8179,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C596">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C599">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C600">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C603">
@@ -8283,7 +8283,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C604">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C615">
@@ -8439,7 +8439,7 @@
     <row r="616">
       <c r="B616" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C616">
@@ -8452,7 +8452,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C617">
@@ -8517,7 +8517,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C622">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C623">
@@ -8569,7 +8569,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C626">
@@ -8582,7 +8582,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C627">
@@ -8595,7 +8595,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C628">
@@ -8860,7 +8860,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C648">
@@ -8886,7 +8886,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C650">
@@ -9270,7 +9270,7 @@
         <v>244</v>
       </c>
       <c r="D679">
-        <v>0.009761171340560867</v>
+        <v>0.009761171340560868</v>
       </c>
     </row>
     <row r="680">
@@ -9705,7 +9705,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C713">
@@ -10009,7 +10009,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C736">
@@ -10100,7 +10100,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C743">
@@ -10152,7 +10152,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C747">
@@ -10217,7 +10217,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C752">
@@ -10230,7 +10230,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C753">
@@ -10328,7 +10328,7 @@
         <v>24</v>
       </c>
       <c r="D760">
-        <v>0.0009601152138256591</v>
+        <v>0.0009601152138256592</v>
       </c>
     </row>
     <row r="761">
@@ -10391,7 +10391,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C765">
@@ -10482,7 +10482,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C772">
@@ -10747,7 +10747,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C792">
@@ -10786,7 +10786,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C795">
@@ -10856,7 +10856,7 @@
     <row r="800">
       <c r="B800" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C800">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C806">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C809">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C815">
@@ -11064,7 +11064,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C816">
@@ -11077,7 +11077,7 @@
     <row r="817">
       <c r="B817" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C817">
@@ -11090,7 +11090,7 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C818">
@@ -11103,7 +11103,7 @@
     <row r="819">
       <c r="B819" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C819">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C826">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C828">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C830">
@@ -11259,7 +11259,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C831">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C832">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C833">
@@ -11311,7 +11311,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C835">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C847">
@@ -11675,7 +11675,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C863">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C878">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C882">
@@ -12013,7 +12013,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C889">
@@ -12325,7 +12325,7 @@
     <row r="913">
       <c r="B913" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C913">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C916">
@@ -12442,7 +12442,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C922">
@@ -12455,7 +12455,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C923">
@@ -12481,7 +12481,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C925">
@@ -12637,7 +12637,7 @@
     <row r="937">
       <c r="B937" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C937">
@@ -12676,7 +12676,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C940">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C955">
@@ -12884,7 +12884,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C956">
@@ -12988,7 +12988,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C964">
@@ -13183,7 +13183,7 @@
     <row r="979">
       <c r="B979" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C979">
@@ -13196,7 +13196,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C980">
@@ -13339,7 +13339,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C991">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1027">
@@ -13963,7 +13963,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1039">
@@ -13976,7 +13976,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1040">
@@ -14002,7 +14002,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1042">
@@ -14015,7 +14015,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1043">
@@ -14028,7 +14028,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1044">
@@ -14041,7 +14041,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1045">
@@ -14067,7 +14067,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1047">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1048">
@@ -14093,7 +14093,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1049">
@@ -14106,7 +14106,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1050">
@@ -14119,7 +14119,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1051">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1054">
@@ -14171,7 +14171,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1055">
@@ -14184,7 +14184,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1056">
@@ -14210,7 +14210,7 @@
     <row r="1058">
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1058">
@@ -14236,7 +14236,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1060">
@@ -14249,7 +14249,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1061">
@@ -14462,7 +14462,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1077">
@@ -14514,7 +14514,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1081">
@@ -14618,7 +14618,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1089">
@@ -14709,7 +14709,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1096">
@@ -14761,7 +14761,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1100">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1101">
@@ -14904,7 +14904,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1111">
@@ -14917,7 +14917,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1112">
@@ -14982,7 +14982,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1117">
@@ -15073,7 +15073,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1124">
@@ -15151,7 +15151,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1130">
@@ -15333,7 +15333,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1144">
@@ -15359,7 +15359,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1146">
@@ -15372,7 +15372,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1147">
@@ -15450,7 +15450,7 @@
     <row r="1153">
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1153">
@@ -15528,7 +15528,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1159">
@@ -15541,7 +15541,7 @@
     <row r="1160">
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1160">
@@ -15554,7 +15554,7 @@
     <row r="1161">
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1161">
@@ -15593,7 +15593,7 @@
     <row r="1164">
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1164">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1166">
@@ -15671,7 +15671,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1170">
@@ -15988,7 +15988,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1194">
@@ -16014,7 +16014,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1196">
@@ -16092,7 +16092,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1202">
@@ -16105,7 +16105,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1203">
@@ -16144,7 +16144,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1206">
@@ -16183,7 +16183,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1209">
@@ -16323,7 +16323,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1219">
@@ -16336,7 +16336,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1220">
@@ -16414,7 +16414,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1226">
@@ -16544,7 +16544,7 @@
     <row r="1236">
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1236">
@@ -16609,7 +16609,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1241">
@@ -16687,7 +16687,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1247">
@@ -16713,7 +16713,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1249">
@@ -16817,7 +16817,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1257">
@@ -16869,7 +16869,7 @@
     <row r="1261">
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1261">
@@ -16882,7 +16882,7 @@
     <row r="1262">
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1262">
@@ -16895,7 +16895,7 @@
     <row r="1263">
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1263">
@@ -16908,7 +16908,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1264">
@@ -16921,7 +16921,7 @@
     <row r="1265">
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1265">
@@ -16934,7 +16934,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1266">
@@ -17521,7 +17521,7 @@
     <row r="1310">
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1310">
@@ -17929,7 +17929,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1341">
@@ -18103,7 +18103,7 @@
     <row r="1354">
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1354">
@@ -18142,7 +18142,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1357">
@@ -18181,7 +18181,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1360">
@@ -18207,7 +18207,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1362">
@@ -18220,7 +18220,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1363">
@@ -18311,7 +18311,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1370">
@@ -18511,7 +18511,7 @@
     <row r="1385">
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1385">
@@ -18563,7 +18563,7 @@
     <row r="1389">
       <c r="B1389" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1389">
@@ -18706,7 +18706,7 @@
     <row r="1400">
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1400">
@@ -18732,7 +18732,7 @@
     <row r="1402">
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1402">
@@ -18771,7 +18771,7 @@
     <row r="1405">
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1405">
@@ -18797,7 +18797,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1407">
@@ -19031,7 +19031,7 @@
     <row r="1425">
       <c r="B1425" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1425">
@@ -19044,7 +19044,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1426">
@@ -19252,7 +19252,7 @@
     <row r="1442">
       <c r="B1442" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1442">
@@ -19265,7 +19265,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1443">
@@ -19317,7 +19317,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1447">
@@ -19330,7 +19330,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1448">
@@ -19343,7 +19343,7 @@
     <row r="1449">
       <c r="B1449" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1449">
@@ -19356,7 +19356,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1450">
@@ -19486,7 +19486,7 @@
     <row r="1460">
       <c r="B1460" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1460">
@@ -19538,7 +19538,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1464">
@@ -19551,7 +19551,7 @@
     <row r="1465">
       <c r="B1465" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1465">
@@ -19590,7 +19590,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1468">
@@ -19616,7 +19616,7 @@
     <row r="1470">
       <c r="B1470" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1470">
@@ -19668,7 +19668,7 @@
     <row r="1474">
       <c r="B1474" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1474">
@@ -19772,7 +19772,7 @@
     <row r="1482">
       <c r="B1482" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1482">
@@ -19824,7 +19824,7 @@
     <row r="1486">
       <c r="B1486" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1486">
@@ -19837,7 +19837,7 @@
     <row r="1487">
       <c r="B1487" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1487">
@@ -19889,7 +19889,7 @@
     <row r="1491">
       <c r="B1491" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1491">
@@ -19993,7 +19993,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1499">
@@ -20045,7 +20045,7 @@
     <row r="1503">
       <c r="B1503" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1503">
@@ -20123,7 +20123,7 @@
     <row r="1509">
       <c r="B1509" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1509">
@@ -20461,7 +20461,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1535">
@@ -20565,7 +20565,7 @@
     <row r="1543">
       <c r="B1543" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1543">
@@ -20770,7 +20770,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1558">
@@ -20842,7 +20842,7 @@
         <v>24</v>
       </c>
       <c r="D1563">
-        <v>0.0009601152138256591</v>
+        <v>0.0009601152138256592</v>
       </c>
     </row>
     <row r="1564">
@@ -20900,7 +20900,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1568">
@@ -20978,7 +20978,7 @@
     <row r="1574">
       <c r="B1574" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1574">
@@ -21030,7 +21030,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1578">
@@ -21147,7 +21147,7 @@
     <row r="1587">
       <c r="B1587" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1587">
@@ -21160,7 +21160,7 @@
     <row r="1588">
       <c r="B1588" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1588">
@@ -21199,7 +21199,7 @@
     <row r="1591">
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1591">
@@ -21298,41 +21298,6 @@
       </c>
       <c r="D1598">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1600">
-      <c r="A1600" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1601">
-      <c r="A1601" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1602">
-      <c r="A1602" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1603">
-      <c r="A1603" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1604">
-      <c r="A1604" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
